--- a/Analyzer Results/RESULTS_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_EXP_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -517,11 +532,20 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6470588235294118</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
+      <c r="K2" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4411764705882353</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -555,10 +579,19 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="I3" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.7058823529411764</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.3529411764705882</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +614,31 @@
         <v>0.9411764705882353</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G4" t="n">
         <v>0.1176470588235294</v>
       </c>
       <c r="H4" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.2352941176470588</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="5">
@@ -631,10 +673,19 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="I5" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.1176470588235294</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +711,28 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="G6" t="n">
         <v>0.4705882352941179</v>
       </c>
       <c r="H6" t="n">
+        <v>0.4705882352941179</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.9411764705882354</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.8235294117647058</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="7">
@@ -704,13 +764,22 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="I7" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3529411764705894</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.4705882352941176</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.5294117647058824</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="8">
@@ -742,13 +811,22 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="H8" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.647058823529412</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +849,7 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -783,11 +861,20 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
+      <c r="K9" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -821,10 +908,19 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="I10" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.5882352941176471</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -847,7 +943,7 @@
         <v>0.3823529411764706</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0.8823529411764706</v>
@@ -856,13 +952,22 @@
         <v>0.7647058823529411</v>
       </c>
       <c r="H11" t="n">
+        <v>0.7058823529411786</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7058823529411768</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.3529411764705884</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.705882352941177</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="12">
@@ -885,7 +990,7 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F12" t="n">
         <v>0.8235294117647058</v>
@@ -894,13 +999,22 @@
         <v>0.9411764705882354</v>
       </c>
       <c r="H12" t="n">
+        <v>0.9411764705882354</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9411764705882354</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="I12" t="n">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.8823529411764706</v>
+      <c r="M12" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="13">
@@ -926,19 +1040,28 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G13" t="n">
         <v>0.8823529411764706</v>
       </c>
       <c r="H13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.9411764705882353</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9411764705882353</v>
+      <c r="M13" t="n">
+        <v>0.7941176470588235</v>
       </c>
     </row>
     <row r="14">
@@ -964,20 +1087,29 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G14" t="n">
         <v>0.4117647058823529</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3529411764705888</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="J14" t="n">
         <v>0.4117647058823529</v>
       </c>
+      <c r="K14" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5882352941176471</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1008,13 +1140,22 @@
         <v>0.3529411764705882</v>
       </c>
       <c r="H15" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3529411764705882</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.1764705882352941</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="16">
@@ -1046,13 +1187,22 @@
         <v>0.8235294117647058</v>
       </c>
       <c r="H16" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.2941176470588235</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="17">
@@ -1084,13 +1234,22 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="H17" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>0.05882352941176471</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1113,7 +1272,7 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="F18" t="n">
         <v>0.9411764705882353</v>
@@ -1122,13 +1281,22 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="I18" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7058823529411766</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.7647058823529411</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1154,19 +1322,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G19" t="n">
         <v>0.5294117647058824</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4705882352941182</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I19" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4705882352941191</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.4705882352941179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MERGED_EXP_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MERGED_EXP_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -543,9 +538,6 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.4411764705882353</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,9 +582,6 @@
       <c r="L3" t="n">
         <v>0.3529411764705882</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.4411764705882353</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,9 +626,6 @@
       <c r="L4" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.4411764705882353</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,9 +670,6 @@
       <c r="L5" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.2352941176470588</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -731,9 +714,6 @@
       <c r="L6" t="n">
         <v>0.8235294117647058</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.2352941176470588</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -778,9 +758,6 @@
       <c r="L7" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="M7" t="n">
-        <v>0.2352941176470588</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,9 +802,6 @@
       <c r="L8" t="n">
         <v>0.647058823529412</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,9 +846,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -919,9 +890,6 @@
       <c r="L10" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,9 +934,6 @@
       <c r="L11" t="n">
         <v>0.705882352941177</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.7941176470588235</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1013,9 +978,6 @@
       <c r="L12" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="M12" t="n">
-        <v>0.7941176470588235</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,9 +1022,6 @@
       <c r="L13" t="n">
         <v>0.9411764705882353</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.7941176470588235</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1107,9 +1066,6 @@
       <c r="L14" t="n">
         <v>0.4117647058823529</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.5882352941176471</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1154,9 +1110,6 @@
       <c r="L15" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.5882352941176471</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1201,9 +1154,6 @@
       <c r="L16" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.5882352941176471</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1248,9 +1198,6 @@
       <c r="L17" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1295,9 +1242,6 @@
       <c r="L18" t="n">
         <v>0.7647058823529411</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1341,9 +1285,6 @@
       </c>
       <c r="L19" t="n">
         <v>0.4705882352941179</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
